--- a/static/file/知了v1.2.0-测试日报.xlsx
+++ b/static/file/知了v1.2.0-测试日报.xlsx
@@ -296,12 +296,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'整体情况'!$B$4:$B$11</f>
+              <f>'整体情况'!$B$4:$B$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'整体情况'!$C$4:$C$11</f>
+              <f>'整体情况'!$C$4:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -320,12 +320,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'整体情况'!$B$4:$B$11</f>
+              <f>'整体情况'!$B$4:$B$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'整体情况'!$D$4:$D$11</f>
+              <f>'整体情况'!$D$4:$D$8</f>
             </numRef>
           </val>
         </ser>
@@ -381,7 +381,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>问题分类占比</a:t>
+              <a:t>未关闭问题分类占比</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -450,7 +450,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>严重级别占比</a:t>
+              <a:t>未关闭问题级别占比</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -513,7 +513,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -535,7 +535,7 @@
     <from>
       <col>8</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -557,7 +557,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1022,7 +1022,7 @@
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>接口相关</t>
+          <t>挂号可细分到分钟</t>
         </is>
       </c>
       <c r="C4" s="10" t="n">
@@ -1052,11 +1052,11 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>新增药房_海南华方汇药房【海南】</t>
         </is>
       </c>
       <c r="C5" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
       <c r="A6" s="8" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>诊室</t>
+          <t>新增药房_益德中医门诊部【天津】</t>
         </is>
       </c>
       <c r="C6" s="10" t="n">
@@ -1112,11 +1112,11 @@
       <c r="A7" s="8" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>iOS_导入药方优化</t>
+          <t>新增药房_康仁堂【河北】</t>
         </is>
       </c>
       <c r="C7" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
       <c r="A8" s="8" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>iOS_剂型增加浓缩丸，选择药房样式优化</t>
+          <t>新增药房_汇恒康【大连】</t>
         </is>
       </c>
       <c r="C8" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>0</v>
@@ -1169,45 +1169,75 @@
       <c r="T8" s="8" t="n"/>
     </row>
     <row customFormat="1" r="9" s="11">
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>iOS_上海真仁堂药房接入</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="10" t="n"/>
-      <c r="O9" s="10" t="n"/>
-      <c r="P9" s="10" t="n"/>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="C9" s="29">
+        <f>SUM(C4:C8)</f>
+        <v/>
+      </c>
+      <c r="D9" s="29">
+        <f>SUM(D4:D8)</f>
+        <v/>
+      </c>
+      <c r="E9" s="29">
+        <f>SUM(E4:E8)</f>
+        <v/>
+      </c>
+      <c r="F9" s="29">
+        <f>SUM(F4:F8)</f>
+        <v/>
+      </c>
+      <c r="G9" s="29">
+        <f>SUM(G4:G8)</f>
+        <v/>
+      </c>
+      <c r="H9" s="29">
+        <f>SUM(H4:H8)</f>
+        <v/>
+      </c>
+      <c r="I9" s="29">
+        <f>SUM(I4:I8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="29">
+        <f>SUM(J4:J8)</f>
+        <v/>
+      </c>
+      <c r="K9" s="29">
+        <f>SUM(K4:K8)</f>
+        <v/>
+      </c>
+      <c r="L9" s="29">
+        <f>SUM(L4:L8)</f>
+        <v/>
+      </c>
+      <c r="M9" s="29">
+        <f>SUM(M4:M8)</f>
+        <v/>
+      </c>
+      <c r="N9" s="29">
+        <f>SUM(N4:N8)</f>
+        <v/>
+      </c>
+      <c r="O9" s="29">
+        <f>SUM(O4:O8)</f>
+        <v/>
+      </c>
+      <c r="P9" s="29">
+        <f>SUM(P4:P8)</f>
+        <v/>
+      </c>
       <c r="Q9" s="10" t="n"/>
       <c r="R9" s="10" t="n"/>
       <c r="S9" s="10" t="n"/>
     </row>
     <row customFormat="1" r="10" s="11">
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="14" t="n"/>
       <c r="G10" s="14" t="n"/>
@@ -1225,17 +1255,9 @@
       <c r="S10" s="10" t="n"/>
     </row>
     <row customFormat="1" r="11" s="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>管理后台</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
       <c r="E11" s="10" t="n"/>
       <c r="F11" s="10" t="n"/>
       <c r="G11" s="10" t="n"/>
@@ -1254,67 +1276,21 @@
     </row>
     <row customFormat="1" r="12" s="11">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="28" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="C12" s="29">
-        <f>SUM(C4:C11)</f>
-        <v/>
-      </c>
-      <c r="D12" s="29">
-        <f>SUM(D4:D11)</f>
-        <v/>
-      </c>
-      <c r="E12" s="29">
-        <f>SUM(E4:E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="29">
-        <f>SUM(F4:F11)</f>
-        <v/>
-      </c>
-      <c r="G12" s="29">
-        <f>SUM(G4:G11)</f>
-        <v/>
-      </c>
-      <c r="H12" s="29">
-        <f>SUM(H4:H11)</f>
-        <v/>
-      </c>
-      <c r="I12" s="29">
-        <f>SUM(I4:I11)</f>
-        <v/>
-      </c>
-      <c r="J12" s="29">
-        <f>SUM(J4:J11)</f>
-        <v/>
-      </c>
-      <c r="K12" s="29">
-        <f>SUM(K4:K11)</f>
-        <v/>
-      </c>
-      <c r="L12" s="29">
-        <f>SUM(L4:L11)</f>
-        <v/>
-      </c>
-      <c r="M12" s="29">
-        <f>SUM(M4:M11)</f>
-        <v/>
-      </c>
-      <c r="N12" s="29">
-        <f>SUM(N4:N11)</f>
-        <v/>
-      </c>
-      <c r="O12" s="29">
-        <f>SUM(O4:O11)</f>
-        <v/>
-      </c>
-      <c r="P12" s="29">
-        <f>SUM(P4:P11)</f>
-        <v/>
-      </c>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="14" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="14" t="n"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
+      <c r="P12" s="14" t="n"/>
       <c r="Q12" s="10" t="n"/>
       <c r="R12" s="10" t="n"/>
       <c r="S12" s="10" t="n"/>
@@ -2365,7 +2341,7 @@
         </is>
       </c>
       <c r="C80" s="4">
-        <f>SUM(E4:E11)</f>
+        <f>SUM(E4:E8)</f>
         <v/>
       </c>
     </row>
@@ -2376,7 +2352,7 @@
         </is>
       </c>
       <c r="C81" s="4">
-        <f>SUM(F4:F11)</f>
+        <f>SUM(F4:F8)</f>
         <v/>
       </c>
     </row>
@@ -2387,7 +2363,7 @@
         </is>
       </c>
       <c r="C82" s="4">
-        <f>SUM(G4:G11)</f>
+        <f>SUM(G4:G8)</f>
         <v/>
       </c>
     </row>
@@ -2398,7 +2374,7 @@
         </is>
       </c>
       <c r="C83" s="4">
-        <f>SUM(H4:H11)</f>
+        <f>SUM(H4:H8)</f>
         <v/>
       </c>
     </row>
@@ -2409,7 +2385,7 @@
         </is>
       </c>
       <c r="C84" s="4">
-        <f>SUM(I4:I11)</f>
+        <f>SUM(I4:I8)</f>
         <v/>
       </c>
     </row>
@@ -2420,7 +2396,7 @@
         </is>
       </c>
       <c r="C85" s="4">
-        <f>SUM(J4:J11)</f>
+        <f>SUM(J4:J8)</f>
         <v/>
       </c>
     </row>
@@ -2431,7 +2407,7 @@
         </is>
       </c>
       <c r="C86" s="4">
-        <f>SUM(K4:K11)</f>
+        <f>SUM(K4:K8)</f>
         <v/>
       </c>
     </row>
@@ -2454,7 +2430,7 @@
         </is>
       </c>
       <c r="C89" s="22">
-        <f>SUM(L4:L11)</f>
+        <f>SUM(L4:L8)</f>
         <v/>
       </c>
     </row>
@@ -2465,7 +2441,7 @@
         </is>
       </c>
       <c r="C90" s="22">
-        <f>SUM(M4:M11)</f>
+        <f>SUM(M4:M8)</f>
         <v/>
       </c>
     </row>
@@ -2476,7 +2452,7 @@
         </is>
       </c>
       <c r="C91" s="22">
-        <f>SUM(N4:N11)</f>
+        <f>SUM(N4:N8)</f>
         <v/>
       </c>
     </row>
@@ -2487,7 +2463,7 @@
         </is>
       </c>
       <c r="C92" s="22">
-        <f>SUM(O4:O11)</f>
+        <f>SUM(O4:O8)</f>
         <v/>
       </c>
     </row>
@@ -2498,7 +2474,7 @@
         </is>
       </c>
       <c r="C93" s="22">
-        <f>SUM(P4:P11)</f>
+        <f>SUM(P4:P8)</f>
         <v/>
       </c>
     </row>
